--- a/BackTest/2019-10-31 BackTest BCH.xlsx
+++ b/BackTest/2019-10-31 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2332,17 +2332,11 @@
         <v>-211.7113471100001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>331400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2371,17 +2365,11 @@
         <v>-339.6451471100001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>331400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2447,17 +2431,11 @@
         <v>-334.6088471100001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>331200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2486,17 +2464,11 @@
         <v>-340.3436471100001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>331200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2525,17 +2497,11 @@
         <v>-340.3436471100001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>330800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2564,17 +2530,11 @@
         <v>-317.1093471100001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>330800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2603,17 +2563,11 @@
         <v>-283.1571471100001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>331000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2642,17 +2596,11 @@
         <v>-283.1571471100001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>331500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2681,17 +2629,11 @@
         <v>-115.6270471100001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>331500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2720,17 +2662,11 @@
         <v>-98.85174711000009</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>332400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2759,17 +2695,11 @@
         <v>-126.5377471100001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>332700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2798,17 +2728,11 @@
         <v>-85.89574711000009</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>332600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2841,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2878,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2915,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2952,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2989,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3026,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3063,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3100,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3137,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3174,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3211,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3248,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3285,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3359,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3396,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3433,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3470,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3544,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3581,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3655,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3692,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3729,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3766,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3803,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3840,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3988,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4025,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4173,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4210,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4247,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4321,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4358,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4395,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4432,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4469,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4506,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4580,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4617,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4654,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4691,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4728,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4765,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4802,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4839,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4950,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4987,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5024,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5061,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5098,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5135,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5172,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5209,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5246,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5283,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5320,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5357,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5394,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5431,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5468,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5542,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5579,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5616,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5653,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5690,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5727,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5838,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5875,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5949,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6023,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6060,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6134,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6171,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6208,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6245,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6319,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6356,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6393,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6430,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6467,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6504,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6541,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6578,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6615,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6652,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6689,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6763,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6800,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6837,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6874,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6911,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6948,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7022,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7059,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7096,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7170,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7207,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7244,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7281,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7318,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7355,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7392,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7429,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7466,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7503,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7540,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7577,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7614,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7651,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7688,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7725,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7762,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7799,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7836,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7873,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7910,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7947,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7984,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8021,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8058,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8095,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8132,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8169,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8243,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8313,17 +7645,11 @@
         <v>-749.2220542000001</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>331900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8356,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8393,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8430,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8467,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8504,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8541,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8574,17 +7876,11 @@
         <v>-684.7920073600002</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>333600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8613,17 +7909,11 @@
         <v>-714.7452073600002</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>333600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8652,17 +7942,11 @@
         <v>-691.3480073600002</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>333400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8695,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8732,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8769,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8806,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8843,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8880,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8917,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8954,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8991,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9028,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9065,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9139,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9176,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9213,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9246,17 +8470,11 @@
         <v>-862.2736073600001</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>331200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9285,17 +8503,11 @@
         <v>-828.5386073600001</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>331200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9324,17 +8536,11 @@
         <v>-841.6658073600001</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>332400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9367,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9404,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9441,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9478,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9511,13 +8701,15 @@
         <v>-888.7832073600001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>332000</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -9548,9 +8740,11 @@
         <v>-920.7832073600001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>331700</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9585,9 +8779,11 @@
         <v>-964.4929073600001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>331600</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9622,9 +8818,11 @@
         <v>-964.7895073600001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>330800</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9659,7 +8857,7 @@
         <v>-964.7895073600001</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>330600</v>
@@ -9698,7 +8896,7 @@
         <v>-988.3321073600001</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>330600</v>
@@ -9737,7 +8935,7 @@
         <v>-1001.75720736</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>330300</v>
@@ -9776,7 +8974,7 @@
         <v>-1076.18000736</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>330000</v>
@@ -9815,7 +9013,7 @@
         <v>-1144.40980736</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>329900</v>
@@ -9854,7 +9052,7 @@
         <v>-1066.03160736</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>329800</v>
@@ -9893,7 +9091,7 @@
         <v>-945.1320073600002</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>329900</v>
@@ -9932,7 +9130,7 @@
         <v>-913.5428073600002</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>330000</v>
@@ -9971,7 +9169,7 @@
         <v>-750.0288073600002</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>331000</v>
@@ -10010,7 +9208,7 @@
         <v>-826.7659073600003</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>332900</v>
@@ -10049,7 +9247,7 @@
         <v>-677.8417073600002</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>332400</v>
@@ -10088,7 +9286,7 @@
         <v>-772.7358073600002</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>332900</v>
@@ -10127,7 +9325,7 @@
         <v>-815.4386073600002</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>332600</v>
@@ -10166,7 +9364,7 @@
         <v>-795.9819073600003</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>332400</v>
@@ -10205,7 +9403,7 @@
         <v>-799.1025073600002</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>333100</v>
@@ -10244,7 +9442,7 @@
         <v>-681.1866073600003</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>332800</v>
@@ -10283,7 +9481,7 @@
         <v>-486.8313073600003</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>335000</v>
@@ -10322,11 +9520,9 @@
         <v>415.6516926399997</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>337100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -11212,7 +10408,7 @@
         <v>142.5816781599993</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11249,7 +10445,7 @@
         <v>204.2495781599993</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11286,7 +10482,7 @@
         <v>351.8950781599993</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11323,7 +10519,7 @@
         <v>123.0615960699994</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11360,18 +10556,16 @@
         <v>215.1717960699993</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
@@ -11397,15 +10591,11 @@
         <v>63.17849606999934</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11434,15 +10624,11 @@
         <v>94.53389606999934</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11471,15 +10657,11 @@
         <v>106.8733960699993</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11508,15 +10690,11 @@
         <v>-14.87262271000066</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11545,15 +10723,11 @@
         <v>-115.7290512800007</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11586,11 +10760,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11623,11 +10793,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11656,15 +10822,11 @@
         <v>-166.3886512800007</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11693,15 +10855,11 @@
         <v>-49.89515314000066</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11730,15 +10888,11 @@
         <v>-65.13905314000066</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11767,15 +10921,11 @@
         <v>-187.5861531400006</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11804,15 +10954,11 @@
         <v>-190.2948531400006</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11841,15 +10987,11 @@
         <v>-146.1327635600006</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11878,15 +11020,11 @@
         <v>-162.0497635600006</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11915,15 +11053,11 @@
         <v>-168.0581635600006</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11952,15 +11086,11 @@
         <v>-229.1627635600006</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11989,15 +11119,11 @@
         <v>-294.8593635600006</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12026,15 +11152,11 @@
         <v>-341.6767635600007</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12063,15 +11185,11 @@
         <v>-275.4360881900006</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12100,15 +11218,11 @@
         <v>-325.7333881900007</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12137,15 +11251,11 @@
         <v>-361.1055881900007</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12174,15 +11284,11 @@
         <v>-396.3111339800007</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12211,15 +11317,11 @@
         <v>-329.7092447900007</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12248,15 +11350,11 @@
         <v>-372.5969447900007</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12285,15 +11383,11 @@
         <v>-448.1906447900007</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12322,15 +11416,11 @@
         <v>-785.9707447900007</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12359,15 +11449,11 @@
         <v>-604.7729447900007</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12396,15 +11482,11 @@
         <v>-560.3025447900006</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12433,15 +11515,11 @@
         <v>-465.3132447900006</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12470,15 +11548,11 @@
         <v>-443.2670447900006</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12507,15 +11581,11 @@
         <v>-404.2583447900006</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12544,15 +11614,11 @@
         <v>-434.1179447900006</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12581,15 +11647,11 @@
         <v>-409.3882447900007</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12618,15 +11680,11 @@
         <v>-377.8545615600007</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12655,15 +11713,11 @@
         <v>-351.7562606700006</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12692,15 +11746,11 @@
         <v>-351.7562606700006</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12729,15 +11779,11 @@
         <v>-346.5203606700006</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12766,15 +11812,11 @@
         <v>-300.1006735800006</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12803,15 +11845,11 @@
         <v>-355.8707735800006</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12840,15 +11878,11 @@
         <v>-320.2305735800006</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12877,15 +11911,11 @@
         <v>-357.9227735800006</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12918,11 +11948,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12955,11 +11981,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12992,11 +12014,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13029,11 +12047,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13066,11 +12080,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13103,11 +12113,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13140,11 +12146,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13177,11 +12179,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13214,11 +12212,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13251,11 +12245,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +12278,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13325,11 +12311,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13362,11 +12344,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13399,11 +12377,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13436,11 +12410,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13473,11 +12443,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13510,11 +12476,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13547,11 +12509,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13584,11 +12542,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13621,11 +12575,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13658,11 +12608,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13695,11 +12641,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13732,11 +12674,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13769,11 +12707,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13806,11 +12740,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13843,11 +12773,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13880,11 +12806,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13917,11 +12839,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13954,11 +12872,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13991,11 +12905,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14028,11 +12938,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14065,11 +12971,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14102,11 +13004,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14139,11 +13037,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14176,11 +13070,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14213,11 +13103,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14250,11 +13136,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14287,11 +13169,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14324,11 +13202,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14361,11 +13235,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14398,11 +13268,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14435,11 +13301,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14472,11 +13334,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +13367,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14546,11 +13400,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14583,11 +13433,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14620,11 +13466,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14657,11 +13499,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14694,11 +13532,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14731,11 +13565,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14768,11 +13598,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14805,11 +13631,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14842,11 +13664,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14879,11 +13697,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14916,11 +13730,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14953,11 +13763,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14990,11 +13796,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15027,11 +13829,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15064,11 +13862,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15101,11 +13895,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15138,11 +13928,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15175,11 +13961,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15212,11 +13994,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15249,11 +14027,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15286,11 +14060,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15323,11 +14093,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15360,11 +14126,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15397,11 +14159,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15434,11 +14192,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15471,11 +14225,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15508,11 +14258,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15545,11 +14291,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15582,11 +14324,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15619,11 +14357,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15656,11 +14390,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15693,11 +14423,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +14456,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15767,11 +14489,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15804,11 +14522,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15841,11 +14555,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15878,11 +14588,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15915,11 +14621,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15952,11 +14654,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15989,11 +14687,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16026,11 +14720,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16063,11 +14753,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16100,11 +14786,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16137,11 +14819,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16174,11 +14852,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16211,11 +14885,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16248,11 +14918,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16285,11 +14951,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16322,11 +14984,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16359,11 +15017,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16396,11 +15050,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16433,11 +15083,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16470,11 +15116,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16507,11 +15149,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16544,11 +15182,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16581,11 +15215,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16618,11 +15248,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16655,11 +15281,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16692,11 +15314,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16729,11 +15347,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16766,11 +15380,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16803,11 +15413,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16840,11 +15446,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16877,11 +15479,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16914,11 +15512,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +15545,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16988,11 +15578,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17025,11 +15611,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17062,11 +15644,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17099,11 +15677,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17136,11 +15710,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17173,11 +15743,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17210,11 +15776,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17247,11 +15809,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17284,11 +15842,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17321,11 +15875,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17358,11 +15908,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17395,11 +15941,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17432,11 +15974,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17469,11 +16007,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17506,11 +16040,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17543,11 +16073,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17580,11 +16106,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17617,11 +16139,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17654,11 +16172,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17691,11 +16205,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17728,11 +16238,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17765,11 +16271,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17802,11 +16304,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17839,11 +16337,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17876,11 +16370,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17913,11 +16403,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17950,11 +16436,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17987,11 +16469,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18024,11 +16502,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18061,11 +16535,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18098,11 +16568,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18135,11 +16601,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +16634,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18209,11 +16667,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18246,11 +16700,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18283,11 +16733,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18320,11 +16766,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18357,11 +16799,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18394,11 +16832,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18431,11 +16865,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18468,11 +16898,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18505,11 +16931,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18542,11 +16964,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18579,11 +16997,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18616,11 +17030,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18653,11 +17063,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18690,11 +17096,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18727,11 +17129,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18764,11 +17162,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18801,11 +17195,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18838,11 +17228,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18875,11 +17261,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18912,11 +17294,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18949,11 +17327,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18986,11 +17360,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19023,11 +17393,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19060,11 +17426,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19097,11 +17459,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19134,11 +17492,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19171,11 +17525,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19208,11 +17558,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19245,11 +17591,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19282,11 +17624,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19319,11 +17657,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19356,11 +17690,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +17723,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19430,11 +17756,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19467,11 +17789,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19504,11 +17822,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19541,11 +17855,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19578,11 +17888,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19615,11 +17921,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19652,11 +17954,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19689,11 +17987,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19726,11 +18020,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19763,11 +18053,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19800,11 +18086,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19837,11 +18119,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19874,11 +18152,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19911,11 +18185,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19948,11 +18218,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19985,11 +18251,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20022,11 +18284,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20059,11 +18317,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20096,11 +18350,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20133,11 +18383,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20170,11 +18416,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20207,11 +18449,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20244,11 +18482,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20281,11 +18515,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20318,11 +18548,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20355,11 +18581,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20392,11 +18614,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20429,11 +18647,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20466,11 +18680,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20503,11 +18713,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20540,11 +18746,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20577,11 +18779,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20614,11 +18812,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20651,11 +18845,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20688,11 +18878,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20725,11 +18911,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20762,11 +18944,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20799,11 +18977,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20836,11 +19010,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20873,11 +19043,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20910,11 +19076,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20943,16 +19105,14 @@
         <v>-549.9145016700004</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="n">
+        <v>1</v>
+      </c>
       <c r="M560" t="inlineStr"/>
     </row>
     <row r="561">
@@ -20978,7 +19138,7 @@
         <v>-549.9145016700004</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21011,7 +19171,7 @@
         <v>-553.0486016700004</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21308,7 +19468,7 @@
         <v>-604.2064119500005</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21770,7 +19930,7 @@
         <v>-538.7802207600004</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21803,7 +19963,7 @@
         <v>-537.4546207600004</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21836,7 +19996,7 @@
         <v>-537.4546207600004</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21869,7 +20029,7 @@
         <v>-548.6842207600004</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21902,7 +20062,7 @@
         <v>-735.9470207600003</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21935,7 +20095,7 @@
         <v>-700.7163207600004</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21968,7 +20128,7 @@
         <v>-700.8163207600004</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22001,7 +20161,7 @@
         <v>-748.9544207600004</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22034,7 +20194,7 @@
         <v>-757.0393207600004</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22067,7 +20227,7 @@
         <v>-760.2146207600003</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22430,7 +20590,7 @@
         <v>-1031.28466822</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22496,7 +20656,7 @@
         <v>-1050.81536822</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -24443,7 +22603,7 @@
         <v>-1119.23406444</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24476,7 +22636,7 @@
         <v>-1022.79296433</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24509,7 +22669,7 @@
         <v>-953.1279643300002</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24542,7 +22702,7 @@
         <v>-934.9540643300002</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24575,7 +22735,7 @@
         <v>-878.6340355600001</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24674,7 +22834,7 @@
         <v>-996.4108906100001</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24707,7 +22867,7 @@
         <v>-949.0666906100001</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24806,7 +22966,7 @@
         <v>-818.9591906100002</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24839,7 +22999,7 @@
         <v>-813.3873906100001</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24872,7 +23032,7 @@
         <v>-867.9108906100001</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24905,7 +23065,7 @@
         <v>-875.8269906100002</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24938,7 +23098,7 @@
         <v>-911.7368906100002</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24971,7 +23131,7 @@
         <v>-913.1368906100001</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25004,7 +23164,7 @@
         <v>-917.7453906100002</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26819,7 +24979,7 @@
         <v>-525.6668656500002</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27149,7 +25309,7 @@
         <v>-136.6398823100002</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27182,7 +25342,7 @@
         <v>-173.4408823100002</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27215,7 +25375,7 @@
         <v>-154.9924823100002</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27248,7 +25408,7 @@
         <v>-171.9136823100002</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27281,7 +25441,7 @@
         <v>-207.5949823100002</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27314,7 +25474,7 @@
         <v>-207.5949823100002</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27512,7 +25672,7 @@
         <v>-295.9072823100002</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27545,7 +25705,7 @@
         <v>-343.6236823100002</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27578,7 +25738,7 @@
         <v>-444.2806823100002</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27611,7 +25771,7 @@
         <v>-542.9930823100002</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -30548,7 +28708,7 @@
         <v>-1992.63662909</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I851" t="n">
         <v>331000</v>
@@ -30587,11 +28747,9 @@
         <v>-2115.14572909</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
-      </c>
-      <c r="I852" t="n">
-        <v>332300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -30626,11 +28784,9 @@
         <v>-2085.39382909</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
-      </c>
-      <c r="I853" t="n">
-        <v>332200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -41210,11 +39366,9 @@
         <v>-1823.873253930002</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1139" t="n">
-        <v>333800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
@@ -41249,11 +39403,9 @@
         <v>-1738.186653930002</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1140" t="n">
-        <v>334000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
@@ -41288,11 +39440,9 @@
         <v>-1738.186653930002</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1141" t="n">
-        <v>335200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
@@ -42955,9 +41105,11 @@
         <v>-1884.390453930002</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>333900</v>
+      </c>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
@@ -42992,9 +41144,11 @@
         <v>-1879.540453930002</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>333000</v>
+      </c>
       <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
@@ -43029,9 +41183,11 @@
         <v>-1884.545753930002</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>333400</v>
+      </c>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
@@ -43066,9 +41222,11 @@
         <v>-1871.945753930002</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>333300</v>
+      </c>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
@@ -43103,7 +41261,7 @@
         <v>-1826.397153930002</v>
       </c>
       <c r="H1190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1190" t="n">
         <v>333600</v>
@@ -43142,7 +41300,7 @@
         <v>-1804.318053930002</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1191" t="n">
         <v>333900</v>
@@ -43181,9 +41339,11 @@
         <v>-1732.812753930002</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>334400</v>
+      </c>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
@@ -44935,6 +43095,6 @@
       <c r="M1239" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest BCH.xlsx
+++ b/BackTest/2019-10-31 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -8701,290 +8701,248 @@
         <v>-888.7832073600001</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>332000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>331500</v>
+      </c>
+      <c r="C253" t="n">
+        <v>331600</v>
+      </c>
+      <c r="D253" t="n">
+        <v>331700</v>
+      </c>
+      <c r="E253" t="n">
+        <v>331500</v>
+      </c>
+      <c r="F253" t="n">
+        <v>32</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-920.7832073600001</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>331100</v>
+      </c>
+      <c r="C254" t="n">
+        <v>330800</v>
+      </c>
+      <c r="D254" t="n">
+        <v>331100</v>
+      </c>
+      <c r="E254" t="n">
+        <v>330800</v>
+      </c>
+      <c r="F254" t="n">
+        <v>43.7097</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-964.4929073600001</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>330600</v>
+      </c>
+      <c r="C255" t="n">
+        <v>330600</v>
+      </c>
+      <c r="D255" t="n">
+        <v>330600</v>
+      </c>
+      <c r="E255" t="n">
+        <v>330600</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.2966</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-964.7895073600001</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>330600</v>
+      </c>
+      <c r="C256" t="n">
+        <v>330600</v>
+      </c>
+      <c r="D256" t="n">
+        <v>331100</v>
+      </c>
+      <c r="E256" t="n">
+        <v>330600</v>
+      </c>
+      <c r="F256" t="n">
+        <v>45.4424</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-964.7895073600001</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>330300</v>
+      </c>
+      <c r="C257" t="n">
+        <v>330300</v>
+      </c>
+      <c r="D257" t="n">
+        <v>330300</v>
+      </c>
+      <c r="E257" t="n">
+        <v>330300</v>
+      </c>
+      <c r="F257" t="n">
+        <v>23.5426</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-988.3321073600001</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>330200</v>
+      </c>
+      <c r="C258" t="n">
+        <v>330000</v>
+      </c>
+      <c r="D258" t="n">
+        <v>330200</v>
+      </c>
+      <c r="E258" t="n">
+        <v>330000</v>
+      </c>
+      <c r="F258" t="n">
+        <v>13.4251</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1001.75720736</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>330000</v>
+      </c>
+      <c r="C259" t="n">
+        <v>329900</v>
+      </c>
+      <c r="D259" t="n">
+        <v>330000</v>
+      </c>
+      <c r="E259" t="n">
+        <v>329800</v>
+      </c>
+      <c r="F259" t="n">
+        <v>74.4228</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1076.18000736</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>330000</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>331500</v>
-      </c>
-      <c r="C253" t="n">
-        <v>331600</v>
-      </c>
-      <c r="D253" t="n">
-        <v>331700</v>
-      </c>
-      <c r="E253" t="n">
-        <v>331500</v>
-      </c>
-      <c r="F253" t="n">
-        <v>32</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-920.7832073600001</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>331700</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>331100</v>
-      </c>
-      <c r="C254" t="n">
-        <v>330800</v>
-      </c>
-      <c r="D254" t="n">
-        <v>331100</v>
-      </c>
-      <c r="E254" t="n">
-        <v>330800</v>
-      </c>
-      <c r="F254" t="n">
-        <v>43.7097</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-964.4929073600001</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>331600</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>330600</v>
-      </c>
-      <c r="C255" t="n">
-        <v>330600</v>
-      </c>
-      <c r="D255" t="n">
-        <v>330600</v>
-      </c>
-      <c r="E255" t="n">
-        <v>330600</v>
-      </c>
-      <c r="F255" t="n">
-        <v>0.2966</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-964.7895073600001</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>330800</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>330600</v>
-      </c>
-      <c r="C256" t="n">
-        <v>330600</v>
-      </c>
-      <c r="D256" t="n">
-        <v>331100</v>
-      </c>
-      <c r="E256" t="n">
-        <v>330600</v>
-      </c>
-      <c r="F256" t="n">
-        <v>45.4424</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-964.7895073600001</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>330600</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>330300</v>
-      </c>
-      <c r="C257" t="n">
-        <v>330300</v>
-      </c>
-      <c r="D257" t="n">
-        <v>330300</v>
-      </c>
-      <c r="E257" t="n">
-        <v>330300</v>
-      </c>
-      <c r="F257" t="n">
-        <v>23.5426</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-988.3321073600001</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>330600</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>330200</v>
-      </c>
-      <c r="C258" t="n">
-        <v>330000</v>
-      </c>
-      <c r="D258" t="n">
-        <v>330200</v>
-      </c>
-      <c r="E258" t="n">
-        <v>330000</v>
-      </c>
-      <c r="F258" t="n">
-        <v>13.4251</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1001.75720736</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>330300</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>330000</v>
-      </c>
-      <c r="C259" t="n">
-        <v>329900</v>
-      </c>
-      <c r="D259" t="n">
-        <v>330000</v>
-      </c>
-      <c r="E259" t="n">
-        <v>329800</v>
-      </c>
-      <c r="F259" t="n">
-        <v>74.4228</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-1076.18000736</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>330000</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9013,11 +8971,9 @@
         <v>-1144.40980736</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>329900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9208,11 +9164,9 @@
         <v>-826.7659073600003</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>332900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9247,11 +9201,9 @@
         <v>-677.8417073600002</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>332400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9286,11 +9238,9 @@
         <v>-772.7358073600002</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>332900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9325,11 +9275,9 @@
         <v>-815.4386073600002</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>332600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9364,11 +9312,9 @@
         <v>-795.9819073600003</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>332400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9403,11 +9349,9 @@
         <v>-799.1025073600002</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>333100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9442,11 +9386,9 @@
         <v>-681.1866073600003</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>332800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -9481,11 +9423,9 @@
         <v>-486.8313073600003</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>335000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -9631,18 +9571,16 @@
         <v>2151.83409774</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
@@ -9668,15 +9606,11 @@
         <v>1480.50151038</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9705,15 +9639,11 @@
         <v>1869.15235956</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9742,15 +9672,11 @@
         <v>2414.0959742</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9779,15 +9705,11 @@
         <v>1973.578779429999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9816,15 +9738,11 @@
         <v>1297.927421469999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9857,11 +9775,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9894,11 +9808,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9931,11 +9841,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9968,11 +9874,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10005,11 +9907,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10042,11 +9940,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10079,11 +9973,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10116,11 +10006,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10039,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10190,11 +10072,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10227,11 +10105,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10264,11 +10138,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10301,11 +10171,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10338,11 +10204,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10375,11 +10237,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10412,11 +10270,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10449,11 +10303,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10486,11 +10336,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10523,11 +10369,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10556,16 +10398,14 @@
         <v>215.1717960699993</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
       <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
@@ -10591,7 +10431,7 @@
         <v>63.17849606999934</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10624,7 +10464,7 @@
         <v>94.53389606999934</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10657,7 +10497,7 @@
         <v>106.8733960699993</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10723,7 +10563,7 @@
         <v>-115.7290512800007</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10822,7 +10662,7 @@
         <v>-166.3886512800007</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10855,7 +10695,7 @@
         <v>-49.89515314000066</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10888,7 +10728,7 @@
         <v>-65.13905314000066</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10921,7 +10761,7 @@
         <v>-187.5861531400006</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10954,7 +10794,7 @@
         <v>-190.2948531400006</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10987,7 +10827,7 @@
         <v>-146.1327635600006</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11020,7 +10860,7 @@
         <v>-162.0497635600006</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11053,7 +10893,7 @@
         <v>-168.0581635600006</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11086,7 +10926,7 @@
         <v>-229.1627635600006</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11119,7 +10959,7 @@
         <v>-294.8593635600006</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11152,7 +10992,7 @@
         <v>-341.6767635600007</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11185,7 +11025,7 @@
         <v>-275.4360881900006</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11218,7 +11058,7 @@
         <v>-325.7333881900007</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11251,7 +11091,7 @@
         <v>-361.1055881900007</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11284,7 +11124,7 @@
         <v>-396.3111339800007</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11317,7 +11157,7 @@
         <v>-329.7092447900007</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11350,7 +11190,7 @@
         <v>-372.5969447900007</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11383,7 +11223,7 @@
         <v>-448.1906447900007</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11416,7 +11256,7 @@
         <v>-785.9707447900007</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11449,7 +11289,7 @@
         <v>-604.7729447900007</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11482,7 +11322,7 @@
         <v>-560.3025447900006</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11515,7 +11355,7 @@
         <v>-465.3132447900006</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11548,7 +11388,7 @@
         <v>-443.2670447900006</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11581,7 +11421,7 @@
         <v>-404.2583447900006</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11614,7 +11454,7 @@
         <v>-434.1179447900006</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11647,7 +11487,7 @@
         <v>-409.3882447900007</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11680,7 +11520,7 @@
         <v>-377.8545615600007</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11713,7 +11553,7 @@
         <v>-351.7562606700006</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11746,7 +11586,7 @@
         <v>-351.7562606700006</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11779,7 +11619,7 @@
         <v>-346.5203606700006</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11812,7 +11652,7 @@
         <v>-300.1006735800006</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11845,7 +11685,7 @@
         <v>-355.8707735800006</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11878,7 +11718,7 @@
         <v>-320.2305735800006</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11911,7 +11751,7 @@
         <v>-357.9227735800006</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -28345,11 +28185,17 @@
         <v>-2018.41822909</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>330500</v>
+      </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28378,11 +28224,17 @@
         <v>-1928.57172909</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>331200</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28411,11 +28263,17 @@
         <v>-1655.18072909</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>331900</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28448,7 +28306,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28481,7 +28343,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28514,7 +28380,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28547,7 +28417,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28580,7 +28454,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28613,7 +28491,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28646,7 +28528,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28679,7 +28565,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28716,7 +28606,7 @@
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L851" t="n">
@@ -28747,9 +28637,11 @@
         <v>-2115.14572909</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>332300</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -28784,9 +28676,11 @@
         <v>-2085.39382909</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>332200</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -28821,9 +28715,11 @@
         <v>-2082.41672909</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>332300</v>
+      </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -28858,9 +28754,11 @@
         <v>-1983.74892909</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>332500</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -28895,9 +28793,11 @@
         <v>-1817.54452909</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>333100</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -30301,18 +30201,16 @@
         <v>-830.7978697599999</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L894" t="n">
-        <v>1</v>
-      </c>
+      <c r="L894" t="inlineStr"/>
       <c r="M894" t="inlineStr"/>
     </row>
     <row r="895">
@@ -30342,11 +30240,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30379,11 +30273,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30416,11 +30306,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30453,11 +30339,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30490,11 +30372,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30527,11 +30405,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30564,11 +30438,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30601,11 +30471,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30638,11 +30504,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30675,11 +30537,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30712,11 +30570,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30749,11 +30603,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30786,11 +30636,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30823,11 +30669,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30860,11 +30702,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30897,11 +30735,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30934,11 +30768,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30971,11 +30801,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31008,11 +30834,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31045,11 +30867,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31082,11 +30900,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31119,11 +30933,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31156,11 +30966,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31193,11 +30999,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31230,11 +31032,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31267,11 +31065,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31304,11 +31098,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31341,11 +31131,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31378,11 +31164,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31415,11 +31197,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31452,11 +31230,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31489,11 +31263,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31526,11 +31296,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31563,11 +31329,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31600,11 +31362,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31637,11 +31395,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31674,11 +31428,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31711,11 +31461,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31748,11 +31494,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31785,11 +31527,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31822,11 +31560,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31859,11 +31593,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31896,11 +31626,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31933,11 +31659,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31970,11 +31692,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32007,11 +31725,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32044,11 +31758,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32081,11 +31791,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32118,11 +31824,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32155,11 +31857,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32192,11 +31890,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32229,11 +31923,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32266,11 +31956,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32303,11 +31989,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32340,11 +32022,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32377,11 +32055,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32414,11 +32088,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32451,11 +32121,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32488,11 +32154,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32525,11 +32187,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32562,11 +32220,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32599,11 +32253,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32636,11 +32286,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32673,11 +32319,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32710,11 +32352,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32747,11 +32385,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32784,11 +32418,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32821,11 +32451,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32858,11 +32484,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32895,11 +32517,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32932,11 +32550,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32969,11 +32583,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33006,11 +32616,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33043,11 +32649,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33080,11 +32682,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33117,11 +32715,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33154,11 +32748,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33191,11 +32781,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33228,11 +32814,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33265,11 +32847,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33302,11 +32880,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33339,11 +32913,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33376,11 +32946,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33413,11 +32979,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33450,11 +33012,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33487,11 +33045,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33524,11 +33078,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33561,11 +33111,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33598,11 +33144,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33635,11 +33177,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33672,11 +33210,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33709,11 +33243,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33746,11 +33276,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33783,11 +33309,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33820,11 +33342,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33857,11 +33375,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33894,11 +33408,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33931,11 +33441,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33968,11 +33474,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34005,11 +33507,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34042,11 +33540,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34079,11 +33573,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34116,11 +33606,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34153,11 +33639,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34190,11 +33672,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34227,11 +33705,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34264,11 +33738,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34301,11 +33771,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34338,11 +33804,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34375,11 +33837,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34412,11 +33870,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34449,11 +33903,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34486,11 +33936,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34523,11 +33969,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34560,11 +34002,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34597,11 +34035,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34634,11 +34068,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34671,11 +34101,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34708,11 +34134,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34745,11 +34167,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34782,11 +34200,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34819,11 +34233,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34856,11 +34266,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34893,11 +34299,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34930,11 +34332,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34967,11 +34365,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35004,11 +34398,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35041,11 +34431,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35078,11 +34464,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35115,11 +34497,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35152,11 +34530,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35189,11 +34563,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35226,11 +34596,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35263,11 +34629,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35300,11 +34662,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35337,11 +34695,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35374,11 +34728,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35411,11 +34761,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35448,11 +34794,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35485,11 +34827,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35522,11 +34860,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35559,11 +34893,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35596,11 +34926,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35633,11 +34959,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35670,11 +34992,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35707,11 +35025,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35744,11 +35058,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35781,11 +35091,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35818,11 +35124,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35855,11 +35157,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35892,11 +35190,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35929,11 +35223,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35966,11 +35256,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36003,11 +35289,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36040,11 +35322,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36077,11 +35355,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36114,11 +35388,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36151,11 +35421,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36188,11 +35454,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36225,11 +35487,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36262,11 +35520,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36299,11 +35553,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36336,11 +35586,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36373,11 +35619,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36410,11 +35652,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36447,11 +35685,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36484,11 +35718,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36521,11 +35751,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36558,11 +35784,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36595,11 +35817,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36632,11 +35850,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36669,11 +35883,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36706,11 +35916,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36743,11 +35949,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36780,11 +35982,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36817,11 +36015,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36854,11 +36048,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36891,11 +36081,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36928,11 +36114,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36965,11 +36147,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37002,11 +36180,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37039,11 +36213,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37076,11 +36246,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37113,11 +36279,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37150,11 +36312,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37187,11 +36345,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37224,11 +36378,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37261,11 +36411,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37298,11 +36444,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37335,11 +36477,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37372,11 +36510,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37409,11 +36543,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37446,11 +36576,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37483,11 +36609,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37520,11 +36642,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37557,11 +36675,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37594,11 +36708,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37631,11 +36741,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37668,11 +36774,7 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37705,11 +36807,7 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37742,11 +36840,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37779,11 +36873,7 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37816,11 +36906,7 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37853,11 +36939,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -37890,11 +36972,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37927,11 +37005,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37964,11 +37038,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -38001,11 +37071,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -38038,11 +37104,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -38075,11 +37137,7 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -38112,11 +37170,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -38149,11 +37203,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -38186,11 +37236,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -38223,11 +37269,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -38260,11 +37302,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -38297,11 +37335,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -38334,11 +37368,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -38371,11 +37401,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -38408,11 +37434,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -38445,11 +37467,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -38482,11 +37500,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -38519,11 +37533,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -38556,11 +37566,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -38593,11 +37599,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -38630,11 +37632,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -38667,11 +37665,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -38704,11 +37698,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -38741,11 +37731,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -38778,11 +37764,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -38815,11 +37797,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -38852,11 +37830,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -38889,11 +37863,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -38926,11 +37896,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -38963,11 +37929,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -39000,11 +37962,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -39037,11 +37995,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1130" t="inlineStr"/>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -39074,11 +38028,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -39111,11 +38061,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1132" t="inlineStr"/>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -39148,11 +38094,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1133" t="inlineStr"/>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -39185,11 +38127,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -39222,11 +38160,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1135" t="inlineStr"/>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -39259,11 +38193,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -39296,11 +38226,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -39333,11 +38259,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -39370,11 +38292,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -39407,11 +38325,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -39444,11 +38358,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1141" t="inlineStr"/>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -39481,11 +38391,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1142" t="inlineStr"/>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -39518,11 +38424,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1143" t="inlineStr"/>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -39555,11 +38457,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1144" t="inlineStr"/>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -39592,11 +38490,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1145" t="inlineStr"/>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -39629,11 +38523,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1146" t="inlineStr"/>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -39666,11 +38556,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1147" t="inlineStr"/>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -39703,11 +38589,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1148" t="inlineStr"/>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -39740,11 +38622,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1149" t="inlineStr"/>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39777,11 +38655,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1150" t="inlineStr"/>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -39814,11 +38688,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -39851,11 +38721,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39888,11 +38754,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39925,11 +38787,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39962,11 +38820,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -39999,11 +38853,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -40036,11 +38886,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -40073,11 +38919,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -40110,11 +38952,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -40147,11 +38985,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -40184,11 +39018,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -40221,11 +39051,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -40258,11 +39084,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -40295,11 +39117,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -40332,11 +39150,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -40369,11 +39183,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -40406,11 +39216,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -40443,11 +39249,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -40480,11 +39282,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -40517,11 +39315,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -40554,11 +39348,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -40587,15 +39377,15 @@
         <v>-1852.381353930002</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>333600</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>333600</v>
+      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -40624,13 +39414,17 @@
         <v>-1855.966553930002</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>334300</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>333600</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1173" t="n">
@@ -40664,10 +39458,12 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>333600</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1174" t="n">
@@ -40698,15 +39494,15 @@
         <v>-1776.155353930002</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>333900</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>333900</v>
+      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -40738,10 +39534,12 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>333900</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1176" t="n">
@@ -40775,10 +39573,12 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
+      <c r="J1177" t="n">
+        <v>333900</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1177" t="n">
@@ -40813,11 +39613,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -40850,11 +39646,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -40887,11 +39679,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -40924,11 +39712,7 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -40961,11 +39745,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -40998,11 +39778,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -41031,13 +39807,15 @@
         <v>-1839.136753930002</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>334200</v>
+      </c>
       <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1184" t="n">
@@ -41068,9 +39846,11 @@
         <v>-1841.663353930002</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>334000</v>
+      </c>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
@@ -41378,9 +40158,11 @@
         <v>-1734.151153930002</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>334700</v>
+      </c>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
@@ -41415,9 +40197,11 @@
         <v>-1715.657153930002</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>334200</v>
+      </c>
       <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
@@ -41452,9 +40236,11 @@
         <v>-1733.765453930002</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>334400</v>
+      </c>
       <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
@@ -41489,9 +40275,11 @@
         <v>-1837.939553930002</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>334300</v>
+      </c>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
@@ -41526,9 +40314,11 @@
         <v>-1843.753353930002</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>334200</v>
+      </c>
       <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
@@ -41563,9 +40353,11 @@
         <v>-1820.511553930002</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>333900</v>
+      </c>
       <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
@@ -41600,9 +40392,11 @@
         <v>-1820.511553930002</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>334300</v>
+      </c>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
@@ -41637,9 +40431,11 @@
         <v>-1718.472953930002</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>334300</v>
+      </c>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
@@ -41674,9 +40470,11 @@
         <v>-1715.764553930002</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>334600</v>
+      </c>
       <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
@@ -41711,9 +40509,11 @@
         <v>-1716.319753930002</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>335800</v>
+      </c>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
@@ -41748,9 +40548,11 @@
         <v>-1713.999053930002</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>335300</v>
+      </c>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
@@ -41785,9 +40587,11 @@
         <v>-1719.404353930002</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>335500</v>
+      </c>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -41859,9 +40663,11 @@
         <v>-1697.107053930002</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>335000</v>
+      </c>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -43095,6 +41901,6 @@
       <c r="M1239" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest BCH.xlsx
+++ b/BackTest/2019-10-31 BackTest BCH.xlsx
@@ -8971,9 +8971,11 @@
         <v>-1144.40980736</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>329900</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9164,9 +9166,11 @@
         <v>-826.7659073600003</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>332900</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9201,9 +9205,11 @@
         <v>-677.8417073600002</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>332400</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9238,9 +9244,11 @@
         <v>-772.7358073600002</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>332900</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9571,16 +9579,18 @@
         <v>2151.83409774</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
       <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
@@ -9606,11 +9616,15 @@
         <v>1480.50151038</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9639,11 +9653,15 @@
         <v>1869.15235956</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9672,11 +9690,15 @@
         <v>2414.0959742</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9705,11 +9727,15 @@
         <v>1973.578779429999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9738,11 +9764,15 @@
         <v>1297.927421469999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9775,7 +9805,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9808,7 +9842,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9841,7 +9879,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9874,7 +9916,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9903,14 +9949,16 @@
         <v>580.3176373099993</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -10167,7 +10215,7 @@
         <v>-21.50912184000069</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10299,7 +10347,7 @@
         <v>204.2495781599993</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10332,7 +10380,7 @@
         <v>351.8950781599993</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10365,7 +10413,7 @@
         <v>123.0615960699994</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10398,7 +10446,7 @@
         <v>215.1717960699993</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10431,7 +10479,7 @@
         <v>63.17849606999934</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10464,7 +10512,7 @@
         <v>94.53389606999934</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10497,7 +10545,7 @@
         <v>106.8733960699993</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10530,7 +10578,7 @@
         <v>-14.87262271000066</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10563,7 +10611,7 @@
         <v>-115.7290512800007</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10596,7 +10644,7 @@
         <v>-115.7290512800007</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10629,7 +10677,7 @@
         <v>-107.3193512800007</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -28185,17 +28233,11 @@
         <v>-2018.41822909</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>330500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28224,17 +28266,11 @@
         <v>-1928.57172909</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>331200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28263,17 +28299,11 @@
         <v>-1655.18072909</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>331900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28306,11 +28336,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28343,11 +28369,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28380,11 +28402,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28417,11 +28435,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28454,11 +28468,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28491,11 +28501,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28528,11 +28534,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28565,11 +28567,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28598,17 +28596,11 @@
         <v>-1992.63662909</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>331000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28637,17 +28629,11 @@
         <v>-2115.14572909</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>332300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28676,17 +28662,11 @@
         <v>-2085.39382909</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>332200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28715,17 +28695,11 @@
         <v>-2082.41672909</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>332300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28754,17 +28728,11 @@
         <v>-1983.74892909</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>332500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28793,17 +28761,11 @@
         <v>-1817.54452909</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>333100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28836,11 +28798,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28873,11 +28831,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28910,11 +28864,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28947,11 +28897,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28984,11 +28930,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29021,11 +28963,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29058,11 +28996,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29095,11 +29029,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29132,11 +29062,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29169,11 +29095,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29206,11 +29128,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29243,11 +29161,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29280,11 +29194,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29317,11 +29227,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29354,11 +29260,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29391,11 +29293,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29428,11 +29326,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29465,11 +29359,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29502,11 +29392,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29539,11 +29425,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29576,11 +29458,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29613,11 +29491,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29650,11 +29524,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29687,11 +29557,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29724,11 +29590,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29761,11 +29623,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29798,11 +29656,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29835,11 +29689,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29872,11 +29722,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29909,11 +29755,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29946,11 +29788,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29983,11 +29821,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30020,11 +29854,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30057,11 +29887,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30094,11 +29920,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30131,11 +29953,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30168,11 +29986,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30201,16 +30015,14 @@
         <v>-830.7978697599999</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="n">
+        <v>1</v>
+      </c>
       <c r="M894" t="inlineStr"/>
     </row>
     <row r="895">
@@ -39377,14 +39189,10 @@
         <v>-1852.381353930002</v>
       </c>
       <c r="H1172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1172" t="n">
-        <v>333600</v>
-      </c>
-      <c r="J1172" t="n">
-        <v>333600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1172" t="inlineStr"/>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
@@ -39414,19 +39222,11 @@
         <v>-1855.966553930002</v>
       </c>
       <c r="H1173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1173" t="n">
-        <v>334300</v>
-      </c>
-      <c r="J1173" t="n">
-        <v>333600</v>
-      </c>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1173" t="inlineStr"/>
+      <c r="J1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39458,14 +39258,8 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>333600</v>
-      </c>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39494,14 +39288,10 @@
         <v>-1776.155353930002</v>
       </c>
       <c r="H1175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1175" t="n">
-        <v>333900</v>
-      </c>
-      <c r="J1175" t="n">
-        <v>333900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1175" t="inlineStr"/>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
@@ -39534,14 +39324,8 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>333900</v>
-      </c>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39573,14 +39357,8 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>333900</v>
-      </c>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39741,10 +39519,14 @@
         <v>-1801.753453930002</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>334600</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
@@ -39774,11 +39556,19 @@
         <v>-1813.417053930002</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>334700</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>334600</v>
+      </c>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39812,10 +39602,12 @@
       <c r="I1184" t="n">
         <v>334200</v>
       </c>
-      <c r="J1184" t="inlineStr"/>
+      <c r="J1184" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1184" t="n">
@@ -39851,7 +39643,9 @@
       <c r="I1185" t="n">
         <v>334000</v>
       </c>
-      <c r="J1185" t="inlineStr"/>
+      <c r="J1185" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39890,7 +39684,9 @@
       <c r="I1186" t="n">
         <v>333900</v>
       </c>
-      <c r="J1186" t="inlineStr"/>
+      <c r="J1186" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39929,7 +39725,9 @@
       <c r="I1187" t="n">
         <v>333000</v>
       </c>
-      <c r="J1187" t="inlineStr"/>
+      <c r="J1187" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39968,7 +39766,9 @@
       <c r="I1188" t="n">
         <v>333400</v>
       </c>
-      <c r="J1188" t="inlineStr"/>
+      <c r="J1188" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40007,7 +39807,9 @@
       <c r="I1189" t="n">
         <v>333300</v>
       </c>
-      <c r="J1189" t="inlineStr"/>
+      <c r="J1189" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40046,7 +39848,9 @@
       <c r="I1190" t="n">
         <v>333600</v>
       </c>
-      <c r="J1190" t="inlineStr"/>
+      <c r="J1190" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40085,7 +39889,9 @@
       <c r="I1191" t="n">
         <v>333900</v>
       </c>
-      <c r="J1191" t="inlineStr"/>
+      <c r="J1191" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40124,7 +39930,9 @@
       <c r="I1192" t="n">
         <v>334400</v>
       </c>
-      <c r="J1192" t="inlineStr"/>
+      <c r="J1192" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40163,7 +39971,9 @@
       <c r="I1193" t="n">
         <v>334700</v>
       </c>
-      <c r="J1193" t="inlineStr"/>
+      <c r="J1193" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40202,7 +40012,9 @@
       <c r="I1194" t="n">
         <v>334200</v>
       </c>
-      <c r="J1194" t="inlineStr"/>
+      <c r="J1194" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40241,7 +40053,9 @@
       <c r="I1195" t="n">
         <v>334400</v>
       </c>
-      <c r="J1195" t="inlineStr"/>
+      <c r="J1195" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40280,7 +40094,9 @@
       <c r="I1196" t="n">
         <v>334300</v>
       </c>
-      <c r="J1196" t="inlineStr"/>
+      <c r="J1196" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40319,7 +40135,9 @@
       <c r="I1197" t="n">
         <v>334200</v>
       </c>
-      <c r="J1197" t="inlineStr"/>
+      <c r="J1197" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40358,7 +40176,9 @@
       <c r="I1198" t="n">
         <v>333900</v>
       </c>
-      <c r="J1198" t="inlineStr"/>
+      <c r="J1198" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40397,7 +40217,9 @@
       <c r="I1199" t="n">
         <v>334300</v>
       </c>
-      <c r="J1199" t="inlineStr"/>
+      <c r="J1199" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40436,7 +40258,9 @@
       <c r="I1200" t="n">
         <v>334300</v>
       </c>
-      <c r="J1200" t="inlineStr"/>
+      <c r="J1200" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40475,7 +40299,9 @@
       <c r="I1201" t="n">
         <v>334600</v>
       </c>
-      <c r="J1201" t="inlineStr"/>
+      <c r="J1201" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40514,7 +40340,9 @@
       <c r="I1202" t="n">
         <v>335800</v>
       </c>
-      <c r="J1202" t="inlineStr"/>
+      <c r="J1202" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40553,7 +40381,9 @@
       <c r="I1203" t="n">
         <v>335300</v>
       </c>
-      <c r="J1203" t="inlineStr"/>
+      <c r="J1203" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40592,7 +40422,9 @@
       <c r="I1204" t="n">
         <v>335500</v>
       </c>
-      <c r="J1204" t="inlineStr"/>
+      <c r="J1204" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40626,10 +40458,14 @@
         <v>-1734.123953930002</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>335200</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40668,7 +40504,9 @@
       <c r="I1206" t="n">
         <v>335000</v>
       </c>
-      <c r="J1206" t="inlineStr"/>
+      <c r="J1206" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40702,10 +40540,14 @@
         <v>-1697.107053930002</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>336000</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40742,7 +40584,9 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="inlineStr"/>
+      <c r="J1208" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40776,10 +40620,14 @@
         <v>-1715.079953930002</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>335600</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40813,10 +40661,14 @@
         <v>-1719.062953930002</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>335500</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40853,7 +40705,9 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="inlineStr"/>
+      <c r="J1211" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40887,10 +40741,14 @@
         <v>-1735.303253930002</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>334600</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40924,10 +40782,14 @@
         <v>-1734.752853930001</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>335100</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40961,10 +40823,14 @@
         <v>-1781.155353930001</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>335400</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40998,10 +40864,14 @@
         <v>-1802.115553930001</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>334800</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41035,10 +40905,14 @@
         <v>-1780.732853930002</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>334600</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41072,10 +40946,14 @@
         <v>-1780.659653930001</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>334900</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41109,10 +40987,14 @@
         <v>-1790.960353930001</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>335400</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41146,10 +41028,14 @@
         <v>-1786.314153930002</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>335300</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41183,10 +41069,14 @@
         <v>-1786.844353930001</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>335500</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41220,10 +41110,14 @@
         <v>-1764.858653930002</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>335300</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41257,10 +41151,14 @@
         <v>-1711.325953930002</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>335600</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41294,10 +41192,14 @@
         <v>-1649.893053930002</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>336800</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41331,10 +41233,14 @@
         <v>-1472.820053930001</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>337200</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41371,7 +41277,9 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
+      <c r="J1225" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41408,7 +41316,9 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+      <c r="J1226" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41445,7 +41355,9 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41482,7 +41394,9 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
+      <c r="J1228" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41519,7 +41433,9 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41556,7 +41472,9 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
+      <c r="J1230" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41593,7 +41511,9 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
+      <c r="J1231" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41630,7 +41550,9 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41667,7 +41589,9 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="inlineStr"/>
+      <c r="J1233" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41704,7 +41628,9 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
+      <c r="J1234" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41741,7 +41667,9 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41778,7 +41706,9 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41815,7 +41745,9 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
+      <c r="J1237" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41852,7 +41784,9 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
+      <c r="J1238" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41889,7 +41823,9 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
+      <c r="J1239" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
